--- a/Filtered_By_Region/Region XI/Region XI_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region XI/Region XI_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS275"/>
+  <dimension ref="A1:AU275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1115,7 +1140,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1229,7 +1259,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1457,7 +1497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1571,7 +1616,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1685,7 +1735,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1854,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1913,7 +1973,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2027,7 +2092,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2141,7 +2211,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2255,7 +2330,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2369,7 +2449,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2483,7 +2568,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2597,7 +2687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2711,7 +2806,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2820,7 +2920,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -2929,7 +3034,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -3046,7 +3156,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3163,7 +3273,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3280,7 +3390,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3397,7 +3507,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3514,7 +3624,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3631,7 +3741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3748,7 +3858,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3865,7 +3975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3982,7 +4092,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4099,7 +4209,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4216,7 +4326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4333,7 +4443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4450,7 +4560,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4567,7 +4677,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4684,7 +4794,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4801,7 +4911,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4918,7 +5028,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5035,7 +5145,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5152,7 +5262,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5269,7 +5379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5386,7 +5496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5503,7 +5613,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5620,7 +5730,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5737,7 +5847,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5854,7 +5964,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5971,7 +6081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6088,7 +6198,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6205,7 +6315,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6322,7 +6432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6439,7 +6549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6556,7 +6666,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6673,7 +6783,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6790,7 +6900,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6907,7 +7017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7024,7 +7134,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7141,7 +7251,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7258,7 +7368,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7375,7 +7485,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7492,7 +7602,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7609,7 +7719,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7726,7 +7836,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7843,7 +7953,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7960,7 +8070,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8077,7 +8187,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8194,7 +8304,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -8311,7 +8421,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -8428,7 +8538,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -8545,7 +8655,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -8662,7 +8772,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -8779,7 +8889,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8896,7 +9006,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9013,7 +9123,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9130,7 +9240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -9247,7 +9357,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9364,7 +9474,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9481,7 +9591,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9598,7 +9708,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9715,7 +9825,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9832,7 +9942,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9949,7 +10059,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10066,7 +10176,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -10183,7 +10293,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -10300,7 +10410,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10417,7 +10527,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10534,7 +10644,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10651,7 +10761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10768,7 +10878,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10885,7 +10995,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -11002,7 +11112,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11119,7 +11229,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -11236,7 +11346,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11353,7 +11463,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11470,7 +11580,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
@@ -11630,7 +11740,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11747,7 +11857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11907,7 +12017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12067,7 +12177,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12227,7 +12337,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12387,7 +12497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12547,7 +12657,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12690,7 +12800,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12833,7 +12943,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12976,7 +13086,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13119,7 +13229,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13262,7 +13372,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13405,7 +13515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13548,7 +13658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13691,7 +13801,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13834,7 +13944,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13977,7 +14087,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14120,7 +14230,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14263,7 +14373,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14406,7 +14516,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14549,7 +14659,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14666,7 +14776,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14783,7 +14893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14900,7 +15010,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15017,7 +15127,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15134,7 +15244,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15251,7 +15361,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15368,7 +15478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15485,7 +15595,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15602,7 +15712,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15719,7 +15829,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15836,7 +15946,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15953,7 +16063,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16070,7 +16180,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16240,7 +16350,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16357,7 +16467,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16474,7 +16584,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16586,7 +16696,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -16703,7 +16813,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16820,7 +16930,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16937,7 +17047,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17054,7 +17164,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17171,7 +17281,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17288,7 +17398,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17405,7 +17515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17522,7 +17632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17639,7 +17749,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17756,7 +17866,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17899,7 +18009,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18042,7 +18152,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18185,7 +18295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18302,7 +18412,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18419,7 +18529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18536,7 +18646,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18653,7 +18763,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18770,7 +18880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18887,7 +18997,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19001,7 +19111,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19115,7 +19225,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19234,7 +19344,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19348,7 +19458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19462,7 +19572,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19576,7 +19686,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19690,7 +19800,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19804,7 +19914,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19923,7 +20033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20042,7 +20152,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20161,7 +20271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20275,7 +20385,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20394,7 +20504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20508,7 +20618,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20622,7 +20732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20741,7 +20851,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20855,7 +20965,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20974,7 +21084,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21088,7 +21198,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21202,7 +21312,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21316,7 +21426,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21435,7 +21545,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21554,7 +21664,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21673,7 +21783,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21787,7 +21897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21906,7 +22016,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22020,7 +22130,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22139,7 +22249,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22253,7 +22363,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22367,7 +22477,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22481,7 +22591,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22639,7 +22749,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22797,7 +22907,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22936,7 +23046,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23094,7 +23204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23233,7 +23343,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23372,7 +23482,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23511,7 +23621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23650,7 +23760,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23808,7 +23918,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23947,7 +24057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24086,7 +24196,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24244,7 +24354,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24402,7 +24512,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24560,7 +24670,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24718,7 +24828,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24837,7 +24947,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24951,7 +25061,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25070,7 +25180,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25184,7 +25294,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25298,7 +25408,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25417,7 +25527,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25536,7 +25646,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25650,7 +25760,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25822,7 +25932,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25994,7 +26104,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26161,7 +26271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26333,7 +26443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26505,7 +26615,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26624,7 +26734,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26743,7 +26853,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26862,7 +26972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26976,7 +27086,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27095,7 +27205,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27214,7 +27324,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27333,7 +27443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27447,7 +27557,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27561,7 +27671,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27675,7 +27785,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27784,7 +27894,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27895,6 +28005,11 @@
       </c>
       <c r="AR222" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT222" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28002,7 +28117,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28113,6 +28228,11 @@
       </c>
       <c r="AR224" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT224" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28220,7 +28340,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28329,7 +28449,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28433,7 +28553,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -28542,7 +28662,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28651,7 +28771,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28760,7 +28880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28869,7 +28989,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28978,7 +29098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29089,6 +29209,11 @@
       </c>
       <c r="AR233" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT233" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29198,6 +29323,11 @@
       </c>
       <c r="AR234" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT234" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29305,7 +29435,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29414,7 +29544,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29523,7 +29653,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29635,7 +29765,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29744,7 +29874,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29853,7 +29983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29962,7 +30092,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30071,7 +30201,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30180,7 +30310,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30289,7 +30419,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30398,7 +30528,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30507,7 +30637,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30616,7 +30746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30727,6 +30857,11 @@
       </c>
       <c r="AR248" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT248" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30836,6 +30971,11 @@
       </c>
       <c r="AR249" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT249" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30940,7 +31080,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31051,6 +31191,11 @@
       </c>
       <c r="AR251" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT251" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31158,7 +31303,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31267,7 +31412,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31376,7 +31521,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31485,7 +31630,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31594,7 +31739,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31751,6 +31896,11 @@
       </c>
       <c r="AR257" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31906,6 +32056,11 @@
       </c>
       <c r="AR258" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32071,6 +32226,11 @@
       </c>
       <c r="AR259" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32236,6 +32396,11 @@
       </c>
       <c r="AR260" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32373,6 +32538,11 @@
       </c>
       <c r="AR261" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32538,6 +32708,11 @@
       </c>
       <c r="AR262" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -32674,7 +32849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
@@ -32807,7 +32982,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>Under Procurement</t>
         </is>
@@ -32944,7 +33119,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33081,7 +33256,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -33228,6 +33403,11 @@
       </c>
       <c r="AR267" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33393,6 +33573,11 @@
       </c>
       <c r="AR268" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33548,6 +33733,11 @@
       </c>
       <c r="AR269" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33708,6 +33898,11 @@
       </c>
       <c r="AR270" t="inlineStr">
         <is>
+          <t>BBM 2024 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33838,6 +34033,11 @@
       </c>
       <c r="AR271" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -33961,7 +34161,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -34113,6 +34313,11 @@
       </c>
       <c r="AR273" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT273" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34263,6 +34468,11 @@
       </c>
       <c r="AR274" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT274" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -34384,7 +34594,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -34392,7 +34602,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS275" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU275" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
